--- a/docs/工程系统模块划分.xlsx
+++ b/docs/工程系统模块划分.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,123 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>供应商模块</t>
+  </si>
+  <si>
+    <t>设计模板模块</t>
+  </si>
+  <si>
+    <t>房屋装修模块</t>
+  </si>
+  <si>
+    <t>房屋施工中间流程模块</t>
+  </si>
+  <si>
+    <t>基础功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信配置管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件配置管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服类型管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银城管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入商服类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核供应商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入供应商信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -46,8 +155,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,12 +478,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -360,6 +676,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/工程系统模块划分.xlsx
+++ b/docs/工程系统模块划分.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>供应商模块</t>
   </si>
@@ -31,75 +31,159 @@
   </si>
   <si>
     <t>基础功能模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服类型管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入商服类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信、邮件发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派发房屋量房设计单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定装修计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核装修计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布装修任务给供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商提供装修计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择装修方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修开工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出项目决算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择装修计划中已有项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知相关责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知采购系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银城管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>属性管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置项管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>短信配置管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮件配置管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服类型管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银城管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统自动执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>供应商管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>供应商登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入商服类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核供应商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>录入供应商信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待采购系统返回完成信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、注册、改密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,13 +199,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -133,6 +210,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,38 +237,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,192 +706,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="3" t="s">
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="D8" s="4" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="A27" s="19">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="19">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="19">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B3:B7"/>
+  <mergeCells count="7">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B3:B8"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -676,7 +1170,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -689,7 +1183,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>